--- a/ig/ajout-donnees-mapping/ValueSet-eclaire-study-status-vs.xlsx
+++ b/ig/ajout-donnees-mapping/ValueSet-eclaire-study-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-29T15:31:02+00:00</t>
+    <t>2024-01-05T14:37:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ajout-donnees-mapping/ValueSet-eclaire-study-status-vs.xlsx
+++ b/ig/ajout-donnees-mapping/ValueSet-eclaire-study-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-05T14:37:35+00:00</t>
+    <t>2024-01-08T08:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
